--- a/mbs-perturbation/bloated/svm/bloated-svm-poly-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C2" t="n">
         <v>0.9230769230769231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.2608695652173914</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9631047685346328</v>
+        <v>0.9182039679777236</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="C3" t="n">
         <v>0.07692307692307693</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.09523809523809525</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9084580577793249</v>
+        <v>0.7055342847198052</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8672699849170438</v>
+        <v>0.4012066365007542</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.7818181818181819</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7286713286713287</v>
+        <v>0.7986013986013987</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.455379746835443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.2487179487179487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1697478991596639</v>
+        <v>0.156935817805383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.693500827980466</v>
+        <v>0.7210728939235727</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bloated/svm/bloated-svm-poly-results.xlsx
+++ b/mbs-perturbation/bloated/svm/bloated-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1518987341772152</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2608695652173914</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9182039679777236</v>
+        <v>0.990257048092869</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09523809523809525</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7055342847198052</v>
+        <v>0.8797678275290216</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4012066365007542</v>
+        <v>0.5029398462234284</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.6268656716417911</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7986013986013987</v>
+        <v>0.8533333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.455379746835443</v>
+        <v>0.3004694835680751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2487179487179487</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156935817805383</v>
+        <v>0.186036453506333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7210728939235727</v>
+        <v>0.7706327453640887</v>
       </c>
     </row>
   </sheetData>
